--- a/01_data/SUBSET_PROMIS.xlsx
+++ b/01_data/SUBSET_PROMIS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">Study</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fischer H.F., Klug C., Roeper K., Blozik E., Edelmann F., Eisele M., Stork S., et al. “Screening for Mental Disorders in Heart Failure Patients Using Computer-Adaptive Tests.” Quality of Life Research : An International Journal of Quality of Life Aspects of Treatment, Care and Rehabilitation 23, no. 5 (2014): 1609–18. https://doi.org/10.1007/s11136-013-0599-y.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">194</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,9 @@
       <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="E13"/>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_data/SUBSET_PROMIS.xlsx
+++ b/01_data/SUBSET_PROMIS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">Study</t>
   </si>
@@ -20,73 +20,46 @@
     <t xml:space="preserve">Variable</t>
   </si>
   <si>
-    <t xml:space="preserve">PROMIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Groupinfo</t>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-.PROMIS.Skala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE</t>
   </si>
   <si>
     <t xml:space="preserve">groupsize</t>
   </si>
   <si>
+    <t xml:space="preserve">Fischer H.F., Klug C., Roeper K., Blozik E., Edelmann F., Eisele M., Stork S., et al. “Screening for Mental Disorders in Heart Failure Patients Using Computer-Adaptive Tests.” Quality of Life Research : An International Journal of Quality of Life Aspects of Treatment, Care and Rehabilitation 23, no. 5 (2014): 1609–18. https://doi.org/10.1007/s11136-013-0599-y.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1#1 timepoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keulen M.H.F., Teunis T., Vagner G.A., Ring D., und Reichel L.M. „The Effect of the Content of Patient-Reported Outcome Measures on Patient Perceived Empathy and Satisfaction: A Randomized Controlled Trial“. Journal of Hand Surgery 43, Nr. 12 (2018): 1141. https://doi.org/10.1016/j.jhsa.2018.04.020.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hadlandsmyth, Katherine, Lilian N Dindo, Barbara J St Marie, Roohina Wajid, Jennie L Embree, Nicolas O Noiseux, Toni Tripp-Reimer, M Bridget Zimmerman, und Barbara A Rakel. „Patient-Reported Outcomes Measurement Information System (PROMIS) Instruments: Reliability and Validity in Veterans Following Orthopedic Surgery.“ Evaluation &amp; the health professions, Nr. enk, 7805992 (2019): 163278719856406. https://doi.org/10.1177/0163278719856406.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purvis, Taylor E, Elena Andreou, Brian J Neuman, Lee H 3rd Riley, und Richard L Skolasky. „Concurrent Validity and Responsiveness of PROMIS Health Domains Among Patients Presenting for Anterior Cervical Spine Surgery.“ Spine 42, Nr. 23 (2017): E1357–65. https://doi.org/10.1097/BRS.0000000000002347.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kim J., Chung H., Askew R.L., Park R., Jones S.M., Cook K.F., und Amtmann D. „Translating CESD-20 and PHQ-9 Scores to PROMIS Depression“. Assessment 24, Nr. 3 (2017): 300–307. https://doi.org/10.1177/1073191115607042.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purvis, Taylor E, Brian J Neuman, Lee H Riley, und Richard L Skolasky. „Comparison of PROMIS Anxiety and Depression, PHQ-8, and GAD-7 to screen for anxiety and depression among patients presenting for spine surgery.“ Journal of neurosurgery. Spine, Nr. 101223545 (2019): 1–8. https://doi.org/10.3171/2018.9.SPINE18521.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purvis, Taylor E, Brian J Neuman, Lee H 3rd Riley, und Richard L Skolasky. „Discriminant Ability, Concurrent Validity, and Responsiveness of PROMIS Health Domains Among Patients With Lumbar Degenerative Disease Undergoing Decompression With or Without Arthrodesis.“ Spine 43, Nr. 21 (2018): 1512–20. https://doi.org/10.1097/BRS.0000000000002661.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Freedland K.E., Steinmeyer B.C., Carney R.M., Rubin E.H., und Rich M.W. „Use of the PROMIS depression scale and the beck depression inventory in patients with heart failure“. Health Psychology 38, Nr. 5 (2019): 369–75. https://doi.org/10.1037/hea0000682.</t>
   </si>
   <si>
-    <t xml:space="preserve">1#1 timepoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cases/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158</t>
-  </si>
-  <si>
     <t xml:space="preserve">1#2 timepoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kim J., Chung H., Askew R.L., Park R., Jones S.M., Cook K.F., und Amtmann D. „Translating CESD-20 and PHQ-9 Scores to PROMIS Depression“. Assessment 24, Nr. 3 (2017): 300–307. https://doi.org/10.1177/1073191115607042.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purvis, Taylor E, Brian J Neuman, Lee H 3rd Riley, und Richard L Skolasky. „Discriminant Ability, Concurrent Validity, and Responsiveness of PROMIS Health Domains Among Patients With Lumbar Degenerative Disease Undergoing Decompression With or Without Arthrodesis.“ Spine 43, Nr. 21 (2018): 1512–20. https://doi.org/10.1097/BRS.0000000000002661.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purvis, Taylor E, Brian J Neuman, Lee H Riley, und Richard L Skolasky. „Comparison of PROMIS Anxiety and Depression, PHQ-8, and GAD-7 to screen for anxiety and depression among patients presenting for spine surgery.“ Journal of neurosurgery. Spine, Nr. 101223545 (2019): 1–8. https://doi.org/10.3171/2018.9.SPINE18521.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hadlandsmyth, Katherine, Lilian N Dindo, Barbara J St Marie, Roohina Wajid, Jennie L Embree, Nicolas O Noiseux, Toni Tripp-Reimer, M Bridget Zimmerman, und Barbara A Rakel. „Patient-Reported Outcomes Measurement Information System (PROMIS) Instruments: Reliability and Validity in Veterans Following Orthopedic Surgery.“ Evaluation &amp; the health professions, Nr. enk, 7805992 (2019): 163278719856406. https://doi.org/10.1177/0163278719856406.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purvis, Taylor E, Elena Andreou, Brian J Neuman, Lee H 3rd Riley, und Richard L Skolasky. „Concurrent Validity and Responsiveness of PROMIS Health Domains Among Patients Presenting for Anterior Cervical Spine Surgery.“ Spine 42, Nr. 23 (2017): E1357–65. https://doi.org/10.1097/BRS.0000000000002347.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keulen M.H.F., Teunis T., Vagner G.A., Ring D., und Reichel L.M. „The Effect of the Content of Patient-Reported Outcome Measures on Patient Perceived Empathy and Satisfaction: A Randomized Controlled Trial“. Journal of Hand Surgery 43, Nr. 12 (2018): 1141. https://doi.org/10.1016/j.jhsa.2018.04.020.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fischer H.F., Klug C., Roeper K., Blozik E., Edelmann F., Eisele M., Stork S., et al. “Screening for Mental Disorders in Heart Failure Patients Using Computer-Adaptive Tests.” Quality of Life Research : An International Journal of Quality of Life Aspects of Treatment, Care and Rehabilitation 23, no. 5 (2014): 1609–18. https://doi.org/10.1007/s11136-013-0599-y.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">194</t>
   </si>
 </sst>
 </file>
@@ -434,209 +407,188 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>63</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+        <v>14.7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>53.6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>49</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
+        <v>49.3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
+        <v>50.2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" t="n">
+        <v>459</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>50.2</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
+      <c r="D7" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="n">
+        <v>512</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
+        <v>50.2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" t="n">
+        <v>459</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
+        <v>51</v>
+      </c>
+      <c r="D9" t="n">
+        <v>51</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
+        <v>53.6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
+        <v>63</v>
+      </c>
+      <c r="D11" t="n">
+        <v>63</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11" t="n">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
